--- a/medicine/Enfance/Zone_d'ombre_(série_littéraire)/Zone_d'ombre_(série_littéraire).xlsx
+++ b/medicine/Enfance/Zone_d'ombre_(série_littéraire)/Zone_d'ombre_(série_littéraire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zone_d%27ombre_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Zone_d'ombre_(série_littéraire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Zone d'ombre est une série de livres fantastiques écrits par J.R. Black dans les années 1990. Chaque livre propose une histoire indépendante, mettant en scène un jeune adolescent confronté à un ou plusieurs êtres surnaturels. Parfois agressifs, parfois sympathiques, ils forcent généralement l'enfant à les aider, faisant souvent peser sur lui ou sur sa famille de sérieuses menaces. Le héros a parfois l'aide d'autres enfants, mais jamais d'adultes, qui ignorent tout de son aventure. Ces histoires sont teintées d'humour noir, et les êtres surnaturels finissent souvent par être amicaux ou touchants.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zone_d%27ombre_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Zone_d'ombre_(série_littéraire)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste des volumes publiés et résumés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le Métro Vampire - Le jeune Fred se lie d'amitié avec le chef d'une colonie de vampires vivant dans un métro. Mais celui-ci cache bien son jeu.
 Un Extraterrestre sous mon Lit - Hélène tente d'empêcher l'extraterrestre qui a élu domicile dans sa chambre d'enlever la fille de sa belle-mère, qu'elle apprécie pourtant peu.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Zone_d%27ombre_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Zone_d'ombre_(série_littéraire)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Les volumes non traduits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Guess who's dating a werewolf - Annie apprend que sa grande sœur sort avec un loup-garou. Elle cherche alors par tous les moyens à empêcher ce dernier de lui faire du mal.
 Good night, Mummy - Une momie transportée aux États-Unis 50 ans plus tôt a perdu le livre de sorts qui la protège de la colère d'Anubis et de Thoth, ainsi que son sarcophage. Blaise en a pitié et l'aide à retrouver ses protections et son sommeil.
